--- a/surgeon_schedule_heuristic1.xlsx
+++ b/surgeon_schedule_heuristic1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,62 +424,42 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
+          <t>外科医372</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>外科医294</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>外科医301</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>外科医15</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>外科医194</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>外科医240</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>外科医294</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>外科医301</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>外科医15</t>
-        </is>
-      </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>外科医372</t>
+          <t>外科医279</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>外科医279</t>
+          <t>外科医598</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>外科医598</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>外科医248</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>外科医199</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>外科医11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>外科医538</t>
         </is>
       </c>
     </row>
@@ -490,7 +470,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.821503</v>
+        <v>72.82150300000001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -511,18 +491,6 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -533,7 +501,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -554,18 +522,6 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -579,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.639685</v>
+        <v>34.813317</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -597,32 +553,20 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>手術5821</t>
+          <t>手術3392</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -640,18 +584,6 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -665,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-49.99999499999998</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>34.466919</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -683,35 +615,23 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>手術8100</t>
+          <t>手術6156</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -726,18 +646,6 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -754,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>77.82150300000001</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>76.32495900000001</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -769,25 +677,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>手術3392</t>
+          <t>手術1917</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -797,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -812,18 +708,6 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -843,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>112.8215</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>18.821503</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -855,25 +739,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>手術6156</t>
+          <t>手術8471</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -886,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -898,18 +770,6 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,34 +792,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>76.32495900000001</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>18.821503</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>手術1917</t>
+          <t>手術6199</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -975,27 +823,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1021,31 +857,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>18.821503</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>43.380065</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>手術8471</t>
+          <t>手術40230</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1064,24 +888,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,28 +922,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>243.8215</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
+        <v>206.8215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>手術6199</t>
+          <t>手術36882</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1153,452 +953,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>43.380065</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>手術40230</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>30</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>34.466919</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>手術36882</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>270</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9.6794008</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>手術8808</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>13</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>18.821503</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>手術6445</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>284</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>194.8215</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>手術2191</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/surgeon_schedule_heuristic1.xlsx
+++ b/surgeon_schedule_heuristic1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,42 +424,57 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
+          <t>外科医11</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>外科医15</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>外科医294</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>外科医301</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>外科医240</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>外科医372</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>外科医294</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>外科医301</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>外科医15</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>外科医468</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>外科医248</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>外科医199</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>外科医194</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>外科医279</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>外科医598</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>外科医248</t>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>外科医538</t>
         </is>
       </c>
     </row>
@@ -470,7 +485,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.82150300000001</v>
+        <v>62.821503</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -491,6 +506,15 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -501,7 +525,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -522,6 +546,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -535,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.813317</v>
+        <v>76.32495900000001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -553,20 +586,29 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>手術3392</t>
+          <t>手術8100</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -584,6 +626,15 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>34.466919</v>
+        <v>34.813317</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -615,13 +666,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>手術6156</t>
+          <t>手術3392</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -631,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -646,6 +706,15 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -665,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>76.32495900000001</v>
+        <v>144.38006</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -677,13 +746,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>手術1917</t>
+          <t>手術6156</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -696,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -708,6 +786,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -730,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>18.821503</v>
+        <v>34.639685</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -739,13 +826,22 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>手術8471</t>
+          <t>手術5821</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -761,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -770,6 +866,15 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,22 +897,31 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-49.99999499999998</v>
       </c>
       <c r="G12" t="n">
-        <v>18.821503</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>手術6199</t>
+          <t>手術6341</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -823,15 +937,24 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G13" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,19 +980,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>178.63969</v>
       </c>
       <c r="H14" t="n">
-        <v>43.380065</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>手術40230</t>
+          <t>手術8471</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -888,12 +1020,21 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -922,41 +1063,379 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>43.380065</v>
       </c>
       <c r="I16" t="n">
-        <v>206.8215</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>手術40230</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>128.81332</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>手術36882</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>149</v>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>270</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>139.63969</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>手術8808</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>13</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>18.821503</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>手術6445</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>284</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>34.813317</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>手術2191</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
